--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gau20/Desktop/stage programmation/N-back HDG/condition 3/n3-back/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C70B19-F8F8-9F4F-B3A9-E2E22242B6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A458201-D7F0-1A4C-B04B-6AEE07C85C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10920" yWindow="1380" windowWidth="16300" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
   <si>
     <t>ordre</t>
   </si>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45:E45"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1119,6 +1119,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gau20/Desktop/stage programmation/N-back HDG/condition 3/n3-back/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A458201-D7F0-1A4C-B04B-6AEE07C85C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E453C60C-7103-4E47-851E-DF9EEE607523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10920" yWindow="1380" windowWidth="16300" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t>ordre</t>
   </si>
@@ -439,7 +439,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+      <selection activeCell="C62" sqref="A62:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1120,15 +1120,9 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
